--- a/analisis/historias_usuario/HU-001 Iniciar sesion.xlsx
+++ b/analisis/historias_usuario/HU-001 Iniciar sesion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\menus\analisis\historias_usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9B8BF6-7382-4659-817E-ABF20492BE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC7D4C2-126C-4B46-9D0D-F380061958D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>ID HISTORIA DE USUARIO</t>
   </si>
@@ -101,8 +101,11 @@
     <t>Visualizar el menu principal</t>
   </si>
   <si>
-    <t xml:space="preserve">Al iniciar sesión correctamente, el sistema debe mostrar un mensaje de bienvenida y las opciones disponibles (Menu cliente, Menu administrador, Salir).
+    <t xml:space="preserve">Al iniciar el programa, debe mostrar las opciones disponibles (Menu cliente, Menu administrador, Salir).
 </t>
+  </si>
+  <si>
+    <t>El sistema debe permtir elegir un tiypo de usuario pedir las credenciales</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -410,19 +413,6 @@
       <left style="thin">
         <color rgb="FFBFBFBF"/>
       </left>
-      <right style="thin">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFBFBFBF"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -500,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -549,31 +539,28 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,42 +569,51 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,11 +834,11 @@
     <tabColor rgb="FF8496B0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y974"/>
+  <dimension ref="A1:Y976"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1160,13 +1156,13 @@
     <row r="11" spans="1:25" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="4"/>
@@ -1303,11 +1299,11 @@
       <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1358,16 +1354,16 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="24">
+      <c r="B18" s="49">
         <v>1</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>18</v>
+      <c r="C18" s="46" t="s">
+        <v>22</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -1389,16 +1385,16 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="25">
+      <c r="B19" s="49">
         <v>2</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>19</v>
+      <c r="C19" s="46" t="s">
+        <v>23</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1422,14 +1418,14 @@
     </row>
     <row r="20" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="25">
+      <c r="B20" s="49">
         <v>3</v>
       </c>
-      <c r="C20" s="47" t="s">
-        <v>22</v>
+      <c r="C20" s="40" t="s">
+        <v>18</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1451,14 +1447,16 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
     </row>
-    <row r="21" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="25">
+      <c r="B21" s="49">
         <v>4</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="37"/>
+      <c r="C21" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1480,14 +1478,11 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="25">
+      <c r="B22" s="49">
         <v>5</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -1509,12 +1504,14 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
     </row>
-    <row r="23" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+    <row r="23" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="49">
+        <v>6</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -1536,14 +1533,14 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="26" t="s">
-        <v>17</v>
+    <row r="24" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="49">
+        <v>7</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -1565,12 +1562,12 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="7"/>
     </row>
-    <row r="25" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
+    <row r="25" spans="1:25" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -1592,12 +1589,14 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
     </row>
-    <row r="26" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
+    <row r="26" spans="1:25" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -1621,10 +1620,10 @@
     </row>
     <row r="27" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -1648,10 +1647,10 @@
     </row>
     <row r="28" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -1675,10 +1674,10 @@
     </row>
     <row r="29" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -1702,10 +1701,10 @@
     </row>
     <row r="30" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -1727,12 +1726,12 @@
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
     </row>
-    <row r="31" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+    <row r="31" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -1754,12 +1753,12 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
     </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
+    <row r="32" spans="1:25" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
@@ -1781,7 +1780,7 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
     </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -7155,11 +7154,11 @@
       <c r="Y231" s="7"/>
     </row>
     <row r="232" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="7"/>
-      <c r="B232" s="7"/>
-      <c r="C232" s="7"/>
-      <c r="D232" s="7"/>
-      <c r="E232" s="7"/>
+      <c r="A232" s="16"/>
+      <c r="B232" s="16"/>
+      <c r="C232" s="16"/>
+      <c r="D232" s="16"/>
+      <c r="E232" s="16"/>
       <c r="F232" s="7"/>
       <c r="G232" s="7"/>
       <c r="H232" s="7"/>
@@ -7182,11 +7181,11 @@
       <c r="Y232" s="7"/>
     </row>
     <row r="233" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="7"/>
-      <c r="B233" s="7"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7"/>
-      <c r="E233" s="7"/>
+      <c r="A233" s="16"/>
+      <c r="B233" s="16"/>
+      <c r="C233" s="16"/>
+      <c r="D233" s="16"/>
+      <c r="E233" s="16"/>
       <c r="F233" s="7"/>
       <c r="G233" s="7"/>
       <c r="H233" s="7"/>
@@ -27215,14 +27214,69 @@
       <c r="X974" s="7"/>
       <c r="Y974" s="7"/>
     </row>
+    <row r="975" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A975" s="7"/>
+      <c r="B975" s="7"/>
+      <c r="C975" s="7"/>
+      <c r="D975" s="7"/>
+      <c r="E975" s="7"/>
+      <c r="F975" s="7"/>
+      <c r="G975" s="7"/>
+      <c r="H975" s="7"/>
+      <c r="I975" s="7"/>
+      <c r="J975" s="7"/>
+      <c r="K975" s="7"/>
+      <c r="L975" s="7"/>
+      <c r="M975" s="7"/>
+      <c r="N975" s="7"/>
+      <c r="O975" s="7"/>
+      <c r="P975" s="7"/>
+      <c r="Q975" s="7"/>
+      <c r="R975" s="7"/>
+      <c r="S975" s="7"/>
+      <c r="T975" s="7"/>
+      <c r="U975" s="7"/>
+      <c r="V975" s="7"/>
+      <c r="W975" s="7"/>
+      <c r="X975" s="7"/>
+      <c r="Y975" s="7"/>
+    </row>
+    <row r="976" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A976" s="7"/>
+      <c r="B976" s="7"/>
+      <c r="C976" s="7"/>
+      <c r="D976" s="7"/>
+      <c r="E976" s="7"/>
+      <c r="F976" s="7"/>
+      <c r="G976" s="7"/>
+      <c r="H976" s="7"/>
+      <c r="I976" s="7"/>
+      <c r="J976" s="7"/>
+      <c r="K976" s="7"/>
+      <c r="L976" s="7"/>
+      <c r="M976" s="7"/>
+      <c r="N976" s="7"/>
+      <c r="O976" s="7"/>
+      <c r="P976" s="7"/>
+      <c r="Q976" s="7"/>
+      <c r="R976" s="7"/>
+      <c r="S976" s="7"/>
+      <c r="T976" s="7"/>
+      <c r="U976" s="7"/>
+      <c r="V976" s="7"/>
+      <c r="W976" s="7"/>
+      <c r="X976" s="7"/>
+      <c r="Y976" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C22:E22"/>
+  <mergeCells count="7">
+    <mergeCell ref="C24:E24"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D5" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -27231,6 +27285,6 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" orientation="landscape"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/analisis/historias_usuario/HU-001 Iniciar sesion.xlsx
+++ b/analisis/historias_usuario/HU-001 Iniciar sesion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\menus\analisis\historias_usuario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\ratos\casos_de_uso\appp\analisis\historias_usuario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC7D4C2-126C-4B46-9D0D-F380061958D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B45CFA-C44E-4B6D-BD71-C8F2C66B3F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="3195" windowWidth="16800" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HISTORIA DE USUARIO" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -105,7 +104,7 @@
 </t>
   </si>
   <si>
-    <t>El sistema debe permtir elegir un tiypo de usuario pedir las credenciales</t>
+    <t>El sistema debe permtir elegir un tipo de usuario pedir las credenciales</t>
   </si>
 </sst>
 </file>
@@ -123,85 +122,101 @@
       <sz val="22"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FFA5A5A5"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -490,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -569,6 +584,9 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -606,13 +624,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -837,8 +855,8 @@
   <dimension ref="A1:Y976"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1299,11 +1317,11 @@
       <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1356,14 +1374,14 @@
     </row>
     <row r="18" spans="1:25" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
-      <c r="B18" s="49">
+      <c r="B18" s="34">
         <v>1</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -1387,10 +1405,10 @@
     </row>
     <row r="19" spans="1:25" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="49">
+      <c r="B19" s="34">
         <v>2</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="50"/>
@@ -1418,14 +1436,14 @@
     </row>
     <row r="20" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="49">
+      <c r="B20" s="34">
         <v>3</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -1449,14 +1467,14 @@
     </row>
     <row r="21" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="49">
+      <c r="B21" s="34">
         <v>4</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1480,9 +1498,12 @@
     </row>
     <row r="22" spans="1:25" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="49">
+      <c r="B22" s="34">
         <v>5</v>
       </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -1506,12 +1527,12 @@
     </row>
     <row r="23" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="49">
+      <c r="B23" s="34">
         <v>6</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -1535,12 +1556,12 @@
     </row>
     <row r="24" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="49">
+      <c r="B24" s="34">
         <v>7</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
@@ -27269,7 +27290,7 @@
       <c r="Y976" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C20:E20"/>
@@ -27277,6 +27298,7 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D5" xr:uid="{00000000-0002-0000-0000-000000000000}">
